--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2DA ENTREGA DEL REPORTE DE LAS 48 FRACCIONES COMUNES\ENTREGA 3ER TRIMESTRE DE LAS 48 FRACIONES COMUNES\Vo. Bo. #1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\CALIDAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="8580"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -223,15 +223,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -239,11 +235,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -542,7 +540,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -551,38 +549,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -619,7 +617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="21.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -655,19 +653,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -705,134 +703,134 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>2020</v>
       </c>
-      <c r="B8" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C8" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D8" s="10" t="s">
+      <c r="B8" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C8" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="8">
         <v>0</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="10" t="s">
+      <c r="G8" s="2"/>
+      <c r="H8" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="J8" s="4">
-        <v>44114</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="I8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>2020</v>
       </c>
-      <c r="B9" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C9" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="10" t="s">
+      <c r="G9" s="2"/>
+      <c r="H9" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="4">
-        <v>44114</v>
-      </c>
-      <c r="J9" s="4">
-        <v>44114</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="I9" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J9" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>2020</v>
       </c>
-      <c r="B10" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C10" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D10" s="10" t="s">
+      <c r="B10" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C10" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="10" t="s">
+      <c r="G10" s="2"/>
+      <c r="H10" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="4">
-        <v>44114</v>
-      </c>
-      <c r="J10" s="4">
-        <v>44114</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="I10" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J10" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>2020</v>
       </c>
-      <c r="B11" s="4">
-        <v>44013</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44104</v>
-      </c>
-      <c r="D11" s="10" t="s">
+      <c r="B11" s="3">
+        <v>44105</v>
+      </c>
+      <c r="C11" s="3">
+        <v>44196</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="8">
         <v>0</v>
       </c>
-      <c r="G11" s="3"/>
-      <c r="H11" s="10" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="4">
-        <v>44114</v>
-      </c>
-      <c r="J11" s="4">
-        <v>44114</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="I11" s="3">
+        <v>44206</v>
+      </c>
+      <c r="J11" s="3">
+        <v>44206</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>41</v>
       </c>
     </row>

--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\CALIDAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -229,17 +229,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
@@ -524,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD160"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,33 +549,33 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
       <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
@@ -617,7 +617,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="21.75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -653,19 +653,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -704,133 +704,133 @@
     </row>
     <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C8" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>0</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="5">
         <v>0</v>
       </c>
       <c r="G8" s="2"/>
-      <c r="H8" s="8" t="s">
+      <c r="H8" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I8" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="J8" s="3">
-        <v>44206</v>
-      </c>
-      <c r="K8" s="7" t="s">
+        <v>44298</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C9" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="8" t="s">
+      <c r="H9" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I9" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="J9" s="3">
-        <v>44206</v>
-      </c>
-      <c r="K9" s="7" t="s">
+        <v>44298</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C10" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D10" s="8" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I10" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="J10" s="3">
-        <v>44206</v>
-      </c>
-      <c r="K10" s="7" t="s">
+        <v>44298</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="C11" s="3">
-        <v>44196</v>
-      </c>
-      <c r="D11" s="8" t="s">
+        <v>44286</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="8" t="s">
+      <c r="H11" s="5" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="3">
-        <v>44206</v>
+        <v>44298</v>
       </c>
       <c r="J11" s="3">
-        <v>44206</v>
-      </c>
-      <c r="K11" s="7" t="s">
+        <v>44298</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>41</v>
       </c>
     </row>

--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\UPP 1er Trimestre SIPOT 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,12 +129,12 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Facebook</t>
+  </si>
+  <si>
     <t>Subdirección de Calidad (UPP)</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
@@ -144,7 +144,7 @@
     <t>Llamada telefónica</t>
   </si>
   <si>
-    <t>Los campos que se observan vacío es por que no se presentaron quejas por este medio</t>
+    <t>Los campos que se observan vacío es por que no se presentaron quejas por este medio.</t>
   </si>
 </sst>
 </file>
@@ -164,13 +164,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -218,7 +216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -229,19 +227,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -524,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,7 +536,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5703125" customWidth="1"/>
+    <col min="11" max="11" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -549,38 +545,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -653,19 +649,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -702,135 +698,135 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C8" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="I8" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J8" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K8" s="4" t="s">
+        <v>44386</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C9" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="8">
         <v>0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
+      <c r="H9" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="I9" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J9" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K9" s="4" t="s">
+        <v>44386</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C10" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="8">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="8">
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="5" t="s">
-        <v>36</v>
+      <c r="H10" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="I10" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J10" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K10" s="4" t="s">
+        <v>44386</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="C11" s="3">
-        <v>44286</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>44377</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="8">
         <v>0</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="8">
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="5" t="s">
-        <v>36</v>
+      <c r="H11" s="8" t="s">
+        <v>37</v>
       </c>
       <c r="I11" s="3">
-        <v>44298</v>
+        <v>44386</v>
       </c>
       <c r="J11" s="3">
-        <v>44298</v>
-      </c>
-      <c r="K11" s="4" t="s">
+        <v>44386</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>41</v>
       </c>
     </row>

--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\2do Trimestre SIPOT 2021\Recepción 2do Trimestre\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -129,12 +129,12 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Subdirección de Calidad (UPP)</t>
+  </si>
+  <si>
     <t>Facebook</t>
   </si>
   <si>
-    <t>Subdirección de Calidad (UPP)</t>
-  </si>
-  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
@@ -144,7 +144,7 @@
     <t>Llamada telefónica</t>
   </si>
   <si>
-    <t>Los campos que se observan vacío es por que no se presentaron quejas por este medio.</t>
+    <t>Los campos que se observan vacío es por que no se presentaron quejas por este medio</t>
   </si>
 </sst>
 </file>
@@ -164,11 +164,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -216,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -227,16 +229,22 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -520,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +544,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="53.7109375" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -545,38 +553,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="4" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="4" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6" t="s">
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -649,19 +657,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -698,135 +706,135 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C8" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D8" s="8" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="8">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="8" t="s">
-        <v>37</v>
-      </c>
       <c r="I8" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J8" s="3">
-        <v>44386</v>
-      </c>
-      <c r="K8" s="7" t="s">
+        <v>44480</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C9" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D9" s="8" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>0</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="5">
         <v>0</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="8" t="s">
-        <v>37</v>
+      <c r="H9" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="I9" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J9" s="3">
-        <v>44386</v>
-      </c>
-      <c r="K9" s="7" t="s">
+        <v>44480</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C10" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D10" s="8" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>0</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="5">
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="8" t="s">
-        <v>37</v>
+      <c r="H10" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="I10" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J10" s="3">
-        <v>44386</v>
-      </c>
-      <c r="K10" s="7" t="s">
+        <v>44480</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="C11" s="3">
-        <v>44377</v>
-      </c>
-      <c r="D11" s="8" t="s">
+        <v>44469</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>0</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="5">
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="8" t="s">
-        <v>37</v>
+      <c r="H11" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="I11" s="3">
-        <v>44386</v>
+        <v>44480</v>
       </c>
       <c r="J11" s="3">
-        <v>44386</v>
-      </c>
-      <c r="K11" s="7" t="s">
+        <v>44480</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>41</v>
       </c>
     </row>
@@ -841,6 +849,5 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -2,24 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2021\SIPOT\SIPOT 3ER TRIMETRES 2021\3ER TRIMESTRE 2021 PAGINA OFICIAL\EXCELL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7065"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>46674</t>
   </si>
@@ -129,12 +129,12 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Facebook</t>
+  </si>
+  <si>
     <t>Subdirección de Calidad (UPP)</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Los campos que se observan vacío es por que no se presentaron quejas por este medio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Al profesor Fredy Santander Baños adscrito al P.E. Ing en Biomédica le enviaron evidencia  de manera anónima me enviaron a su correo institucional en donde se puede apreciar que al menos 62 alumnos se reunieron de forma virtual para responder la evaluación parcial teórica de la materia de Programación Estructurada lo cual significa un acto de deshonestidad por parte de los alumnos implicados. Debido a que representa 2/3 del total de los alumnos, sé tomó la determinación de invalidar los resultados de dicha evaluación y reagendarles otra evaluación de tipo presencial. </t>
   </si>
 </sst>
 </file>
@@ -164,16 +167,14 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +189,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFE1E1E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -218,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -230,22 +237,19 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,8 +532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,11 +544,11 @@
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="89" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="11" max="11" width="25.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -553,38 +557,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="6" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:11" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -657,19 +661,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -706,135 +710,135 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="114" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
       <c r="B8" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C8" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2"/>
+      <c r="H8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="I8" s="3">
-        <v>44480</v>
+        <v>44602</v>
       </c>
       <c r="J8" s="3">
-        <v>44480</v>
-      </c>
-      <c r="K8" s="4" t="s">
+        <v>44602</v>
+      </c>
+      <c r="K8" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
       <c r="B9" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C9" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D9" s="5" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>62</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I9" s="3">
-        <v>44480</v>
+        <v>44602</v>
       </c>
       <c r="J9" s="3">
-        <v>44480</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44602</v>
+      </c>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
       <c r="B10" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C10" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D10" s="5" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="4">
         <v>0</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="4">
         <v>0</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="5" t="s">
-        <v>36</v>
+      <c r="H10" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I10" s="3">
-        <v>44480</v>
+        <v>44602</v>
       </c>
       <c r="J10" s="3">
-        <v>44480</v>
-      </c>
-      <c r="K10" s="4" t="s">
+        <v>44602</v>
+      </c>
+      <c r="K10" s="6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="99" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
       <c r="B11" s="3">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="C11" s="3">
-        <v>44469</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>44561</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <v>0</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <v>0</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="5" t="s">
-        <v>36</v>
+      <c r="H11" s="4" t="s">
+        <v>37</v>
       </c>
       <c r="I11" s="3">
-        <v>44480</v>
+        <v>44602</v>
       </c>
       <c r="J11" s="3">
-        <v>44480</v>
-      </c>
-      <c r="K11" s="4" t="s">
+        <v>44602</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -849,5 +853,6 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -1,25 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lisbet\Documents\Dirección de Planeción\2022\SIPOT\4to trimestre 2021\4to Trimestre SIPOT 2021 Pagina Oficial\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8355"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>46674</t>
   </si>
@@ -129,12 +124,12 @@
     <t>Nota</t>
   </si>
   <si>
+    <t>Subdirección de Calidad (UPP)</t>
+  </si>
+  <si>
     <t>Facebook</t>
   </si>
   <si>
-    <t>Subdirección de Calidad (UPP)</t>
-  </si>
-  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
@@ -147,7 +142,7 @@
     <t>Los campos que se observan vacío es por que no se presentaron quejas por este medio</t>
   </si>
   <si>
-    <t xml:space="preserve">Al profesor Fredy Santander Baños adscrito al P.E. Ing en Biomédica le enviaron evidencia  de manera anónima me enviaron a su correo institucional en donde se puede apreciar que al menos 62 alumnos se reunieron de forma virtual para responder la evaluación parcial teórica de la materia de Programación Estructurada lo cual significa un acto de deshonestidad por parte de los alumnos implicados. Debido a que representa 2/3 del total de los alumnos, sé tomó la determinación de invalidar los resultados de dicha evaluación y reagendarles otra evaluación de tipo presencial. </t>
+    <t>Un alumno que esta realizando sus trámites de Estadia no tenia aun firmadas unas calificaciones y esto no le permitia continuar con su trámite. El área académica responde que de acuerdo con el reglamento de licenciatura de esta casa de estudios, en el artículo 90 se expresa el tiempo de publicación, revisión y firma de los resultados en el Sistema Integral de la Universidad Politécnica de Pachuca aun se estaba en tiempo y se firmarón las calificaciones.</t>
   </si>
 </sst>
 </file>
@@ -167,11 +162,13 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -198,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -221,11 +218,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -239,17 +245,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +534,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -544,11 +556,11 @@
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="89" customWidth="1"/>
+    <col min="7" max="7" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" customWidth="1"/>
+    <col min="11" max="11" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -573,7 +585,7 @@
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
@@ -584,11 +596,11 @@
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -710,18 +722,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C8" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -731,27 +743,27 @@
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I8" s="3">
-        <v>44602</v>
+        <v>44659</v>
       </c>
       <c r="J8" s="3">
-        <v>44602</v>
-      </c>
-      <c r="K8" s="6" t="s">
+        <v>44659</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C9" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>38</v>
@@ -760,31 +772,33 @@
         <v>1</v>
       </c>
       <c r="F9" s="4">
-        <v>62</v>
-      </c>
-      <c r="G9" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" s="3">
-        <v>44602</v>
+        <v>44659</v>
       </c>
       <c r="J9" s="3">
-        <v>44602</v>
-      </c>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" spans="1:11" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>44659</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C10" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -797,27 +811,27 @@
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="3">
-        <v>44602</v>
+        <v>44659</v>
       </c>
       <c r="J10" s="3">
-        <v>44602</v>
-      </c>
-      <c r="K10" s="6" t="s">
+        <v>44659</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="C11" s="3">
-        <v>44561</v>
+        <v>44651</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
@@ -830,15 +844,15 @@
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I11" s="3">
-        <v>44602</v>
+        <v>44659</v>
       </c>
       <c r="J11" s="3">
-        <v>44602</v>
-      </c>
-      <c r="K11" s="6" t="s">
+        <v>44659</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -853,6 +867,5 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7050"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8640"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>46674</t>
   </si>
@@ -139,10 +139,7 @@
     <t>Llamada telefónica</t>
   </si>
   <si>
-    <t>Los campos que se observan vacío es por que no se presentaron quejas por este medio</t>
-  </si>
-  <si>
-    <t>Un alumno que esta realizando sus trámites de Estadia no tenia aun firmadas unas calificaciones y esto no le permitia continuar con su trámite. El área académica responde que de acuerdo con el reglamento de licenciatura de esta casa de estudios, en el artículo 90 se expresa el tiempo de publicación, revisión y firma de los resultados en el Sistema Integral de la Universidad Politécnica de Pachuca aun se estaba en tiempo y se firmarón las calificaciones.</t>
+    <t>Los criterios e hipervínculos que se encuentran en blanco es porque  no se presentaron quejas por este medio.</t>
   </si>
 </sst>
 </file>
@@ -231,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -243,13 +240,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -290,39 +290,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -357,7 +357,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -401,142 +401,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -544,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,7 +584,7 @@
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="55.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -569,38 +593,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -673,19 +697,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -722,137 +746,119 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C8" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44659</v>
-      </c>
-      <c r="K8" s="5" t="s">
+      <c r="I8" s="6">
+        <v>44753</v>
+      </c>
+      <c r="J8" s="6">
+        <v>44753</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C9" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="7"/>
       <c r="H9" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="3">
-        <v>44659</v>
-      </c>
-      <c r="J9" s="3">
-        <v>44659</v>
-      </c>
-      <c r="K9" s="5" t="s">
+      <c r="I9" s="6">
+        <v>44753</v>
+      </c>
+      <c r="J9" s="6">
+        <v>44753</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C10" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="2"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="3">
-        <v>44659</v>
-      </c>
-      <c r="J10" s="3">
-        <v>44659</v>
-      </c>
-      <c r="K10" s="5" t="s">
+      <c r="I10" s="6">
+        <v>44753</v>
+      </c>
+      <c r="J10" s="6">
+        <v>44753</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="C11" s="3">
-        <v>44651</v>
+        <v>44742</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="3">
-        <v>44659</v>
-      </c>
-      <c r="J11" s="3">
-        <v>44659</v>
-      </c>
-      <c r="K11" s="5" t="s">
+      <c r="I11" s="6">
+        <v>44753</v>
+      </c>
+      <c r="J11" s="6">
+        <v>44753</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>41</v>
       </c>
     </row>

--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3D0FC-25F9-4ED0-A0BB-EC144E53C350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8640"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>46674</t>
   </si>
@@ -140,12 +146,17 @@
   </si>
   <si>
     <t>Los criterios e hipervínculos que se encuentran en blanco es porque  no se presentaron quejas por este medio.</t>
+  </si>
+  <si>
+    <t>1. Diana Sabrina Morales Guerrero, alumna de octavo cuatrimestre de la Lic. En Terapia Física, se le respeto el precio del uniforme sin costo extra por ser talla especial.
+2.  José Armando Mendoza de la Ing. Mecatrónica, solicitud  de información respécto a como puede concluir sus estudios, que abandono a causa de la pandemia. La Comisión de Asuntos Escolares resolvió revocar la baja al alumno para que concluya sus estudios.
+3.Aspirante tiene duda sobre el proceso de adminisión y Servicios Escolares aclaró la duda.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,11 +256,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -322,7 +333,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -355,9 +366,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -390,6 +418,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -565,11 +610,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -580,7 +625,7 @@
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="81.28515625" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
@@ -751,10 +796,10 @@
         <v>2022</v>
       </c>
       <c r="B8" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C8" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>37</v>
@@ -765,54 +810,58 @@
       <c r="H8" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="6">
-        <v>44753</v>
-      </c>
-      <c r="J8" s="6">
-        <v>44753</v>
+      <c r="I8" s="3">
+        <v>44844</v>
+      </c>
+      <c r="J8" s="3">
+        <v>44844</v>
       </c>
       <c r="K8" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
       <c r="B9" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C9" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4" t="s">
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4">
+        <v>3</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="6">
-        <v>44753</v>
-      </c>
-      <c r="J9" s="6">
-        <v>44753</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>41</v>
-      </c>
+      <c r="I9" s="3">
+        <v>44844</v>
+      </c>
+      <c r="J9" s="3">
+        <v>44844</v>
+      </c>
+      <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2022</v>
       </c>
       <c r="B10" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C10" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>39</v>
@@ -823,11 +872,11 @@
       <c r="H10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="6">
-        <v>44753</v>
-      </c>
-      <c r="J10" s="6">
-        <v>44753</v>
+      <c r="I10" s="3">
+        <v>44844</v>
+      </c>
+      <c r="J10" s="3">
+        <v>44844</v>
       </c>
       <c r="K10" s="4" t="s">
         <v>41</v>
@@ -838,10 +887,10 @@
         <v>2022</v>
       </c>
       <c r="B11" s="3">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="C11" s="3">
-        <v>44742</v>
+        <v>44834</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>40</v>
@@ -852,11 +901,11 @@
       <c r="H11" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="6">
-        <v>44753</v>
-      </c>
-      <c r="J11" s="6">
-        <v>44753</v>
+      <c r="I11" s="3">
+        <v>44844</v>
+      </c>
+      <c r="J11" s="3">
+        <v>44844</v>
       </c>
       <c r="K11" s="4" t="s">
         <v>41</v>

--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3er Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD3D0FC-25F9-4ED0-A0BB-EC144E53C350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A0C500E-8E7F-49D0-ACAE-C5D1C07E85C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>46674</t>
   </si>
@@ -146,18 +146,13 @@
   </si>
   <si>
     <t>Los criterios e hipervínculos que se encuentran en blanco es porque  no se presentaron quejas por este medio.</t>
-  </si>
-  <si>
-    <t>1. Diana Sabrina Morales Guerrero, alumna de octavo cuatrimestre de la Lic. En Terapia Física, se le respeto el precio del uniforme sin costo extra por ser talla especial.
-2.  José Armando Mendoza de la Ing. Mecatrónica, solicitud  de información respécto a como puede concluir sus estudios, que abandono a causa de la pandemia. La Comisión de Asuntos Escolares resolvió revocar la baja al alumno para que concluya sus estudios.
-3.Aspirante tiene duda sobre el proceso de adminisión y Servicios Escolares aclaró la duda.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -178,8 +173,15 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -196,14 +198,8 @@
         <fgColor rgb="FFE1E1E1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -226,25 +222,19 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -253,26 +243,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -613,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -625,11 +601,11 @@
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="81.28515625" customWidth="1"/>
+    <col min="7" max="7" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.7109375" customWidth="1"/>
+    <col min="11" max="11" width="55.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -638,38 +614,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="11" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -742,19 +718,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -795,90 +771,86 @@
       <c r="A8" s="2">
         <v>2022</v>
       </c>
-      <c r="B8" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C8" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="B8" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C8" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="4" t="s">
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="J8" s="3">
-        <v>44844</v>
-      </c>
-      <c r="K8" s="4" t="s">
+      <c r="I8" s="4">
+        <v>44936</v>
+      </c>
+      <c r="J8" s="4">
+        <v>44936</v>
+      </c>
+      <c r="K8" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="112.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>2022</v>
       </c>
-      <c r="B9" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C9" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="B9" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="4">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4">
-        <v>3</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="I9" s="3">
-        <v>44844</v>
-      </c>
-      <c r="J9" s="3">
-        <v>44844</v>
-      </c>
-      <c r="K9" s="4"/>
+      <c r="I9" s="4">
+        <v>44936</v>
+      </c>
+      <c r="J9" s="4">
+        <v>44936</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2022</v>
       </c>
-      <c r="B10" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C10" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B10" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C10" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I10" s="3">
-        <v>44844</v>
-      </c>
-      <c r="J10" s="3">
-        <v>44844</v>
-      </c>
-      <c r="K10" s="4" t="s">
+      <c r="I10" s="4">
+        <v>44936</v>
+      </c>
+      <c r="J10" s="4">
+        <v>44936</v>
+      </c>
+      <c r="K10" s="5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -886,28 +858,28 @@
       <c r="A11" s="2">
         <v>2022</v>
       </c>
-      <c r="B11" s="3">
-        <v>44743</v>
-      </c>
-      <c r="C11" s="3">
-        <v>44834</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="B11" s="4">
+        <v>44835</v>
+      </c>
+      <c r="C11" s="4">
+        <v>44926</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I11" s="3">
-        <v>44844</v>
-      </c>
-      <c r="J11" s="3">
-        <v>44844</v>
-      </c>
-      <c r="K11" s="4" t="s">
+      <c r="I11" s="4">
+        <v>44936</v>
+      </c>
+      <c r="J11" s="4">
+        <v>44936</v>
+      </c>
+      <c r="K11" s="5" t="s">
         <v>41</v>
       </c>
     </row>

--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\4to Trimestre 2022\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A0C500E-8E7F-49D0-ACAE-C5D1C07E85C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>46674</t>
   </si>
@@ -130,28 +129,28 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Subdirección de Calidad (UPP)</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
     <t>Correo electrónico</t>
   </si>
   <si>
     <t>Buzón de quejas y sugerencias</t>
   </si>
   <si>
-    <t>Llamada telefónica</t>
+    <t>Departamento de Calidad (UPP)</t>
   </si>
   <si>
     <t>Los criterios e hipervínculos que se encuentran en blanco es porque  no se presentaron quejas por este medio.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atención directa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">El director del programa educativo dio respuesta, informando que hubo dos profesores que no pudieron impartir clases uno por cuestiones de salud y otro por empalme con un curso del doctorado (cambio de fecha al último momento). Por otro lado se encuentra pendiente la autorización para contratación del profesor que atenderá las materias de Introducción a Ingeniería Biomédica y Física médica </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -226,7 +225,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -244,6 +243,9 @@
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -342,23 +344,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -394,23 +379,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -586,11 +554,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -599,13 +567,13 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="82.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.140625" customWidth="1"/>
+    <col min="11" max="11" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
@@ -614,38 +582,38 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="7" t="s">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="7" t="s">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9" t="s">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -718,19 +686,19 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
+      <c r="B6" s="9"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
     </row>
     <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -767,120 +735,95 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C8" s="4">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="J8" s="4">
+        <v>45026</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>2023</v>
+      </c>
+      <c r="B9" s="4">
+        <v>44927</v>
+      </c>
+      <c r="C9" s="4">
+        <v>45016</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="J8" s="4">
-        <v>44936</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C9" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="5" t="s">
-        <v>36</v>
+      <c r="H9" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I9" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="J9" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B10" s="4">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="C10" s="4">
-        <v>44926</v>
+        <v>45016</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I10" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="J10" s="4">
-        <v>44936</v>
+        <v>45026</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>2022</v>
-      </c>
-      <c r="B11" s="4">
-        <v>44835</v>
-      </c>
-      <c r="C11" s="4">
-        <v>44926</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="4">
-        <v>44936</v>
-      </c>
-      <c r="J11" s="4">
-        <v>44936</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -894,5 +837,6 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xlsx/a69_f37_bUPPachuca.xlsx
+++ b/xlsx/a69_f37_bUPPachuca.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\2023\SIPOT\1er Trimestre 2023\Recepción de Información\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\2023\SIPOT\2DO TRIMESTRE 2023\Pagina Oficial 2do Trimestre 2023\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{284B47DC-23ED-4D26-B7B8-9E07564CE322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Reporte de Formatos" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>46674</t>
   </si>
@@ -78,6 +79,12 @@
     <t>395462</t>
   </si>
   <si>
+    <t>570777</t>
+  </si>
+  <si>
+    <t>570778</t>
+  </si>
+  <si>
     <t>395463</t>
   </si>
   <si>
@@ -114,6 +121,12 @@
     <t>Número total de participantes</t>
   </si>
   <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de participantes mujeres</t>
+  </si>
+  <si>
+    <t>ESTE CRITERIO APLICA A PARTIR DEL 01/07/2023 -&gt; Total de participantes hombres</t>
+  </si>
+  <si>
     <t>Respuesta del sujeto obligado a los resultados, descripción sintética de lo que se tomó en cuenta</t>
   </si>
   <si>
@@ -129,28 +142,16 @@
     <t>Nota</t>
   </si>
   <si>
-    <t>Correo electrónico</t>
-  </si>
-  <si>
-    <t>Buzón de quejas y sugerencias</t>
-  </si>
-  <si>
     <t>Departamento de Calidad (UPP)</t>
   </si>
   <si>
-    <t>Los criterios e hipervínculos que se encuentran en blanco es porque  no se presentaron quejas por este medio.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Atención directa </t>
-  </si>
-  <si>
-    <t xml:space="preserve">El director del programa educativo dio respuesta, informando que hubo dos profesores que no pudieron impartir clases uno por cuestiones de salud y otro por empalme con un curso del doctorado (cambio de fecha al último momento). Por otro lado se encuentra pendiente la autorización para contratación del profesor que atenderá las materias de Introducción a Ingeniería Biomédica y Física médica </t>
+    <t>En este periodo que se reporta  no se presentaron quejas por este medio.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -164,13 +165,11 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -225,14 +224,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -240,11 +237,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +340,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -379,6 +392,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -554,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -567,55 +597,57 @@
     <col min="2" max="2" width="36.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="59.85546875" customWidth="1"/>
+    <col min="7" max="7" width="70.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="71.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="82.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="8" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -635,22 +667,28 @@
         <v>10</v>
       </c>
       <c r="G4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>9</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>8</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -684,151 +722,103 @@
       <c r="K5" t="s">
         <v>23</v>
       </c>
+      <c r="L5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:11" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:13" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <v>2023</v>
       </c>
       <c r="B8" s="4">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="C8" s="4">
-        <v>45016</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
+        <v>45107</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="L8" s="4">
+        <v>45117</v>
+      </c>
+      <c r="M8" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I8" s="4">
-        <v>45026</v>
-      </c>
-      <c r="J8" s="4">
-        <v>45026</v>
-      </c>
-      <c r="K8" s="5"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B9" s="4">
-        <v>44927</v>
-      </c>
-      <c r="C9" s="4">
-        <v>45016</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="4">
-        <v>45026</v>
-      </c>
-      <c r="J9" s="4">
-        <v>45026</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>2023</v>
-      </c>
-      <c r="B10" s="4">
-        <v>44927</v>
-      </c>
-      <c r="C10" s="4">
-        <v>45016</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="4">
-        <v>45026</v>
-      </c>
-      <c r="J10" s="4">
-        <v>45026</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A6:K6"/>
+    <mergeCell ref="A6:M6"/>
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -837,6 +827,5 @@
     <mergeCell ref="G3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>